--- a/config_1.12/fish_2d_fish_server.xlsx
+++ b/config_1.12/fish_2d_fish_server.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="410">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1719,65 +1719,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星星boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",1,0.01,</t>
+    <t>0,0,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小丑boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0,0,0.01,</t>
+  </si>
+  <si>
     <t>0,0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>183,</t>
-  </si>
-  <si>
-    <t>184,</t>
-  </si>
-  <si>
-    <t>185,</t>
-  </si>
-  <si>
-    <t>186,</t>
-  </si>
-  <si>
-    <t>187,</t>
-  </si>
-  <si>
-    <t>188,</t>
-  </si>
-  <si>
-    <t>189,</t>
-  </si>
-  <si>
-    <t>190,</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2034,15 +2005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2326,10 +2288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W217"/>
+  <dimension ref="A1:W209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:A204"/>
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8230,331 +8192,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="42">
-        <v>209</v>
-      </c>
-      <c r="B210" s="42">
-        <v>1</v>
-      </c>
-      <c r="C210" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="D210" s="42"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>150</v>
-      </c>
-      <c r="I210" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>150</v>
-      </c>
-      <c r="J210" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K210" s="42"/>
-      <c r="L210" s="42"/>
-      <c r="M210" s="42"/>
-      <c r="N210" s="42"/>
-      <c r="O210" s="42"/>
-      <c r="P210" s="42"/>
-      <c r="Q210" s="46">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="42">
-        <v>210</v>
-      </c>
-      <c r="B211" s="42">
-        <v>1</v>
-      </c>
-      <c r="C211" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="D211" s="42"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="I211" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="J211" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K211" s="42"/>
-      <c r="L211" s="42"/>
-      <c r="M211" s="42"/>
-      <c r="N211" s="42"/>
-      <c r="O211" s="42"/>
-      <c r="P211" s="42"/>
-      <c r="Q211" s="46">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="42">
-        <v>211</v>
-      </c>
-      <c r="B212" s="42">
-        <v>1</v>
-      </c>
-      <c r="C212" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D212" s="42"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="I212" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="J212" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K212" s="42"/>
-      <c r="L212" s="42"/>
-      <c r="M212" s="42"/>
-      <c r="N212" s="42"/>
-      <c r="O212" s="42"/>
-      <c r="P212" s="42"/>
-      <c r="Q212" s="46">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="42">
-        <v>212</v>
-      </c>
-      <c r="B213" s="42">
-        <v>1</v>
-      </c>
-      <c r="C213" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D213" s="42"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="I213" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="J213" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K213" s="42"/>
-      <c r="L213" s="42"/>
-      <c r="M213" s="42"/>
-      <c r="N213" s="42"/>
-      <c r="O213" s="42"/>
-      <c r="P213" s="42"/>
-      <c r="Q213" s="46">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" s="42">
-        <v>213</v>
-      </c>
-      <c r="B214" s="42">
-        <v>1</v>
-      </c>
-      <c r="C214" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="D214" s="42"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
-      <c r="G214" s="42"/>
-      <c r="H214" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="I214" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="J214" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K214" s="42"/>
-      <c r="L214" s="42"/>
-      <c r="M214" s="42"/>
-      <c r="N214" s="42"/>
-      <c r="O214" s="42"/>
-      <c r="P214" s="42"/>
-      <c r="Q214" s="46">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" s="42">
-        <v>214</v>
-      </c>
-      <c r="B215" s="42">
-        <v>1</v>
-      </c>
-      <c r="C215" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="D215" s="42"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
-      <c r="G215" s="42"/>
-      <c r="H215" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="I215" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="J215" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K215" s="42"/>
-      <c r="L215" s="42"/>
-      <c r="M215" s="42"/>
-      <c r="N215" s="42"/>
-      <c r="O215" s="42"/>
-      <c r="P215" s="42"/>
-      <c r="Q215" s="46">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" s="42">
-        <v>215</v>
-      </c>
-      <c r="B216" s="42">
-        <v>1</v>
-      </c>
-      <c r="C216" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="D216" s="42"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
-      <c r="G216" s="42"/>
-      <c r="H216" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I216" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J216" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K216" s="42"/>
-      <c r="L216" s="42"/>
-      <c r="M216" s="42"/>
-      <c r="N216" s="42"/>
-      <c r="O216" s="42"/>
-      <c r="P216" s="42"/>
-      <c r="Q216" s="46">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" s="42">
-        <v>216</v>
-      </c>
-      <c r="B217" s="42">
-        <v>1</v>
-      </c>
-      <c r="C217" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="D217" s="42"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="I217" s="42">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="J217" s="44">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K217" s="42"/>
-      <c r="L217" s="42"/>
-      <c r="M217" s="42"/>
-      <c r="N217" s="42"/>
-      <c r="O217" s="42"/>
-      <c r="P217" s="42"/>
-      <c r="Q217" s="46">
-        <v>190</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="6"/>
-        <cfvo type="num" val="31"/>
-        <cfvo type="num" val="71"/>
-        <cfvo type="num" val="121"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H217">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="6"/>
-        <cfvo type="num" val="31"/>
-        <cfvo type="num" val="71"/>
-        <cfvo type="num" val="121"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I217">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="6"/>
-        <cfvo type="num" val="31"/>
-        <cfvo type="num" val="71"/>
-        <cfvo type="num" val="121"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J217">
-    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="6"/>
@@ -8641,6 +8282,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="31"/>
+        <cfvo type="num" val="71"/>
+        <cfvo type="num" val="121"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="31"/>
+        <cfvo type="num" val="71"/>
+        <cfvo type="num" val="121"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="31"/>
+        <cfvo type="num" val="71"/>
+        <cfvo type="num" val="121"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L3">
       <formula1>#REF!</formula1>
@@ -8650,7 +8324,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8700,11 +8375,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184:A191"/>
+      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16630,7 +16305,7 @@
         <v>30</v>
       </c>
       <c r="F168" s="26">
-        <f t="shared" ref="F168:F191" si="8">1/E168</f>
+        <f t="shared" ref="F168:F183" si="8">1/E168</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G168" s="27" t="s">
@@ -16652,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="28">
-        <f t="shared" ref="L168:L191" si="9">I168</f>
+        <f t="shared" ref="L168:L183" si="9">I168</f>
         <v>30</v>
       </c>
       <c r="M168" s="28">
@@ -17262,7 +16937,7 @@
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>星星boss+临时活动</v>
+        <v>小丑boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -17310,7 +16985,7 @@
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>星星boss+临时活动</v>
+        <v>小丑boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -17358,7 +17033,7 @@
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>星星boss+临时活动</v>
+        <v>小丑boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -17380,390 +17055,6 @@
       </c>
       <c r="N183" s="37">
         <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="43">
-        <v>183</v>
-      </c>
-      <c r="B184" s="44">
-        <v>37</v>
-      </c>
-      <c r="C184" s="43">
-        <v>48</v>
-      </c>
-      <c r="D184" s="45"/>
-      <c r="E184" s="42">
-        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
-        <v>150</v>
-      </c>
-      <c r="F184" s="43">
-        <f t="shared" si="8"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="G184" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H184" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B184,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C184,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
-      </c>
-      <c r="I184" s="42">
-        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
-        <v>150</v>
-      </c>
-      <c r="J184" s="42">
-        <v>1</v>
-      </c>
-      <c r="K184" s="42">
-        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L184" s="42">
-        <f t="shared" si="9"/>
-        <v>150</v>
-      </c>
-      <c r="M184" s="42">
-        <v>1</v>
-      </c>
-      <c r="N184" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="43">
-        <v>184</v>
-      </c>
-      <c r="B185" s="44">
-        <v>37</v>
-      </c>
-      <c r="C185" s="43">
-        <v>49</v>
-      </c>
-      <c r="D185" s="45"/>
-      <c r="E185" s="42">
-        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="F185" s="43">
-        <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G185" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H185" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B185,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C185,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
-      </c>
-      <c r="I185" s="42">
-        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="J185" s="42">
-        <v>1</v>
-      </c>
-      <c r="K185" s="42">
-        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L185" s="42">
-        <f t="shared" si="9"/>
-        <v>250</v>
-      </c>
-      <c r="M185" s="42">
-        <v>1</v>
-      </c>
-      <c r="N185" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="43">
-        <v>185</v>
-      </c>
-      <c r="B186" s="44">
-        <v>37</v>
-      </c>
-      <c r="C186" s="43">
-        <v>50</v>
-      </c>
-      <c r="D186" s="45"/>
-      <c r="E186" s="42">
-        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="F186" s="43">
-        <f t="shared" si="8"/>
-        <v>2.8571428571428571E-3</v>
-      </c>
-      <c r="G186" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H186" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B186,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C186,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
-      </c>
-      <c r="I186" s="42">
-        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="J186" s="42">
-        <v>1</v>
-      </c>
-      <c r="K186" s="42">
-        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L186" s="42">
-        <f t="shared" si="9"/>
-        <v>350</v>
-      </c>
-      <c r="M186" s="42">
-        <v>1</v>
-      </c>
-      <c r="N186" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="43">
-        <v>186</v>
-      </c>
-      <c r="B187" s="44">
-        <v>6</v>
-      </c>
-      <c r="C187" s="43">
-        <v>51</v>
-      </c>
-      <c r="D187" s="45"/>
-      <c r="E187" s="42">
-        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="F187" s="43">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G187" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H187" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B187,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C187,activity!A:A,0)),"")</f>
-        <v>蓝灯鱼+临时活动</v>
-      </c>
-      <c r="I187" s="42">
-        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="J187" s="42">
-        <v>1</v>
-      </c>
-      <c r="K187" s="42">
-        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L187" s="42">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="M187" s="42">
-        <v>1</v>
-      </c>
-      <c r="N187" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="43">
-        <v>187</v>
-      </c>
-      <c r="B188" s="44">
-        <v>7</v>
-      </c>
-      <c r="C188" s="43">
-        <v>51</v>
-      </c>
-      <c r="D188" s="45"/>
-      <c r="E188" s="42">
-        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="F188" s="43">
-        <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G188" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H188" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B188,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C188,activity!A:A,0)),"")</f>
-        <v>红杉鱼+临时活动</v>
-      </c>
-      <c r="I188" s="42">
-        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="J188" s="42">
-        <v>1</v>
-      </c>
-      <c r="K188" s="42">
-        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L188" s="42">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="M188" s="42">
-        <v>1</v>
-      </c>
-      <c r="N188" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="43">
-        <v>188</v>
-      </c>
-      <c r="B189" s="44">
-        <v>8</v>
-      </c>
-      <c r="C189" s="43">
-        <v>51</v>
-      </c>
-      <c r="D189" s="45"/>
-      <c r="E189" s="42">
-        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="F189" s="43">
-        <f t="shared" si="8"/>
-        <v>0.02</v>
-      </c>
-      <c r="G189" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H189" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B189,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C189,activity!A:A,0)),"")</f>
-        <v>海龟+临时活动</v>
-      </c>
-      <c r="I189" s="42">
-        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="J189" s="42">
-        <v>1</v>
-      </c>
-      <c r="K189" s="42">
-        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L189" s="42">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="M189" s="42">
-        <v>1</v>
-      </c>
-      <c r="N189" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="43">
-        <v>189</v>
-      </c>
-      <c r="B190" s="44">
-        <v>9</v>
-      </c>
-      <c r="C190" s="43">
-        <v>51</v>
-      </c>
-      <c r="D190" s="45"/>
-      <c r="E190" s="42">
-        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="F190" s="43">
-        <f t="shared" si="8"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G190" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H190" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B190,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C190,activity!A:A,0)),"")</f>
-        <v>灯笼鱼+临时活动</v>
-      </c>
-      <c r="I190" s="42">
-        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="J190" s="42">
-        <v>1</v>
-      </c>
-      <c r="K190" s="42">
-        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L190" s="42">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="M190" s="42">
-        <v>1</v>
-      </c>
-      <c r="N190" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="43">
-        <v>190</v>
-      </c>
-      <c r="B191" s="44">
-        <v>10</v>
-      </c>
-      <c r="C191" s="43">
-        <v>51</v>
-      </c>
-      <c r="D191" s="45"/>
-      <c r="E191" s="42">
-        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="F191" s="43">
-        <f t="shared" si="8"/>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="G191" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H191" s="43" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B191,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C191,activity!A:A,0)),"")</f>
-        <v>魔鬼鱼+临时活动</v>
-      </c>
-      <c r="I191" s="42">
-        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="J191" s="42">
-        <v>1</v>
-      </c>
-      <c r="K191" s="42">
-        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L191" s="42">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="M191" s="42">
-        <v>1</v>
-      </c>
-      <c r="N191" s="42">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17779,7 +17070,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A52"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17843,7 +17134,7 @@
         <v>63</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G21" si="0">LOOKUP(B2,H:H,I:I)</f>
+        <f>LOOKUP(B2,H:H,I:I)</f>
         <v>免费子弹</v>
       </c>
       <c r="H2">
@@ -17876,7 +17167,7 @@
         <v>63</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B3,H:H,I:I)</f>
         <v>威力提升</v>
       </c>
       <c r="H3">
@@ -17909,7 +17200,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B4,H:H,I:I)</f>
         <v>暴击时刻</v>
       </c>
       <c r="H4">
@@ -17939,7 +17230,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B5,H:H,I:I)</f>
         <v>炸弹</v>
       </c>
       <c r="H5">
@@ -17969,7 +17260,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B6,H:H,I:I)</f>
         <v>闪电</v>
       </c>
       <c r="H6">
@@ -17999,7 +17290,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B7,H:H,I:I)</f>
         <v>炸弹</v>
       </c>
       <c r="H7">
@@ -18029,7 +17320,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B8,H:H,I:I)</f>
         <v>免费子弹</v>
       </c>
       <c r="H8">
@@ -18059,7 +17350,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B9,H:H,I:I)</f>
         <v>炸弹</v>
       </c>
       <c r="H9">
@@ -18089,7 +17380,7 @@
         <v>63</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B10,H:H,I:I)</f>
         <v>闪电</v>
       </c>
       <c r="H10">
@@ -18119,7 +17410,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B11,H:H,I:I)</f>
         <v>闪电</v>
       </c>
       <c r="H11">
@@ -18149,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B12,H:H,I:I)</f>
         <v>锁定卡</v>
       </c>
       <c r="H12">
@@ -18179,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B13,H:H,I:I)</f>
         <v>锁定卡</v>
       </c>
       <c r="H13">
@@ -18209,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B14,H:H,I:I)</f>
         <v>冰冻卡</v>
       </c>
       <c r="H14">
@@ -18239,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B15,H:H,I:I)</f>
         <v>冰冻卡</v>
       </c>
       <c r="H15">
@@ -18269,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B16,H:H,I:I)</f>
         <v>临时活动</v>
       </c>
       <c r="H16">
@@ -18302,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B17,H:H,I:I)</f>
         <v>临时活动</v>
       </c>
       <c r="H17">
@@ -18335,7 +17626,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B18,H:H,I:I)</f>
         <v>贝壳</v>
       </c>
       <c r="H18">
@@ -18368,7 +17659,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B19,H:H,I:I)</f>
         <v>穿透钢弹</v>
       </c>
       <c r="H19">
@@ -18401,7 +17692,7 @@
         <v>150</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B20,H:H,I:I)</f>
         <v>钻头弹</v>
       </c>
       <c r="H20">
@@ -18434,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B21,H:H,I:I)</f>
         <v>神灯</v>
       </c>
       <c r="H21">
@@ -18976,7 +18267,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18999,7 +18290,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -19022,7 +18313,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -19045,7 +18336,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -19068,7 +18359,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -19091,7 +18382,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -19114,7 +18405,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -19137,7 +18428,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -19244,11 +18535,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45:E46"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20161,35 +19452,12 @@
         <v>0</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F37" s="36">
         <v>0</v>
       </c>
       <c r="G37" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
         <v>0</v>
       </c>
     </row>
